--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{830D3EBA-C8D6-44F6-9926-50FBB8EC74DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543142AB-70AE-44A6-9DDD-143801B0A7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="4890" windowWidth="15330" windowHeight="10485" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>stage|Int</t>
   </si>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>Env_Tutorial</t>
+  </si>
+  <si>
+    <t>plane|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plane_40_40_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,20 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -450,6 +462,9 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543142AB-70AE-44A6-9DDD-143801B0A7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0788AF-A142-43AF-9688-7EEC2DE32ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
+    <sheet name="StageSpawnTable" sheetId="2" r:id="rId2"/>
+    <sheet name="MonsterTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>stage|Int</t>
   </si>
@@ -56,6 +58,61 @@
   <si>
     <t>Plane_40_40_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground|String</t>
+  </si>
+  <si>
+    <t>wall|String</t>
+  </si>
+  <si>
+    <t>TutoGround_12_40_1</t>
+  </si>
+  <si>
+    <t>Wall_0_Empty</t>
+  </si>
+  <si>
+    <t>monsterId|String</t>
+  </si>
+  <si>
+    <t>multiHp|Float</t>
+  </si>
+  <si>
+    <t>multiAtk|Float</t>
+  </si>
+  <si>
+    <t>TrainingDummy</t>
+  </si>
+  <si>
+    <t>moveSpeed|Float</t>
+  </si>
+  <si>
+    <t>boss|Bool</t>
+  </si>
+  <si>
+    <t>defaultDropUse|Bool</t>
+  </si>
+  <si>
+    <t>addDropId|String</t>
+  </si>
+  <si>
+    <t>monsterId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationCrocodile_Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationCrocodile_Gray</t>
   </si>
 </sst>
 </file>
@@ -419,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,9 +488,10 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="6" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +507,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -465,6 +529,200 @@
       </c>
       <c r="E2" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FC4DD-94C9-4E66-9B9A-B36E9166451B}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3.8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0788AF-A142-43AF-9688-7EEC2DE32ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6ECAF0-9AED-4B2E-8679-66C6B6EBFA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
-    <sheet name="StageSpawnTable" sheetId="2" r:id="rId2"/>
-    <sheet name="MonsterTable" sheetId="3" r:id="rId3"/>
+    <sheet name="MonsterTable" sheetId="3" r:id="rId2"/>
+    <sheet name="MonsterGroupTable" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>stage|Int</t>
   </si>
@@ -96,23 +96,51 @@
     <t>addDropId|String</t>
   </si>
   <si>
-    <t>monsterId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixedLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VariationCrocodile_Gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VariationCrocodile_Gray</t>
+  </si>
+  <si>
+    <t>spawnInfo|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterSpawnx|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterSpawnz|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerSpawnx|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerSpawnz|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simpleId|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationScarab_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,5,0.3,12,1,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupMonsterId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g101,250,11,10,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,11 +504,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -489,9 +515,10 @@
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="7" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +540,23 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -535,6 +577,59 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>2106</v>
+      </c>
+      <c r="C3">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -544,105 +639,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FC4DD-94C9-4E66-9B9A-B36E9166451B}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="B3">
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3.8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4" t="b">
         <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -652,77 +753,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80799EE6-D1F4-4D2D-A985-87CB39ECB69C}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1.25</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3.8</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6ECAF0-9AED-4B2E-8679-66C6B6EBFA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C222DF-5F79-4A7B-866C-11FE982D0FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>stage|Int</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>g101,250,11,10,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterTargetz|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterTargetx|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,9 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -515,10 +525,10 @@
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="7" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,10 +563,16 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -582,19 +598,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
+        <v>6.35</v>
+      </c>
+      <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>-7.55</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -620,15 +642,21 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
+        <v>6.35</v>
+      </c>
+      <c r="L3">
+        <v>3.5</v>
+      </c>
+      <c r="M3">
+        <v>-7.55</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -643,7 +671,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80799EE6-D1F4-4D2D-A985-87CB39ECB69C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C222DF-5F79-4A7B-866C-11FE982D0FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE606A97-103C-46C7-B645-D25A6034EBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>stage|Int</t>
   </si>
@@ -81,9 +81,6 @@
     <t>multiAtk|Float</t>
   </si>
   <si>
-    <t>TrainingDummy</t>
-  </si>
-  <si>
     <t>moveSpeed|Float</t>
   </si>
   <si>
@@ -149,6 +146,15 @@
   <si>
     <t>monsterTargetx|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+  </si>
+  <si>
+    <t>flakeMultiplier|Float</t>
+  </si>
+  <si>
+    <t>burnTime|Float</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,13 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,25 +563,25 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -613,7 +625,7 @@
         <v>-7.55</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -657,7 +669,7 @@
         <v>-7.55</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -668,23 +680,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -693,24 +704,33 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -719,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -727,13 +747,16 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -742,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -750,32 +773,17 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>I1=I1048308</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -795,18 +803,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE606A97-103C-46C7-B645-D25A6034EBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355538B-1E65-4385-B77F-D7A52D3369F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>stage|Int</t>
   </si>
@@ -49,26 +49,16 @@
     <t>environmentSetting|String!</t>
   </si>
   <si>
-    <t>Env_Tutorial</t>
-  </si>
-  <si>
     <t>plane|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plane_40_40_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ground|String</t>
   </si>
   <si>
     <t>wall|String</t>
   </si>
   <si>
-    <t>TutoGround_12_40_1</t>
-  </si>
-  <si>
     <t>Wall_0_Empty</t>
   </si>
   <si>
@@ -155,6 +145,30 @@
   </si>
   <si>
     <t>burnTime|Float</t>
+  </si>
+  <si>
+    <t>redLinex|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redLinez|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground_12_40_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Env_DayLight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plane_12_40_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,152 +538,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
-    <col min="6" max="7" width="23.625" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="31.625" customWidth="1"/>
+    <col min="7" max="8" width="23.625" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>10001</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2106</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-3.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6.35</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-7.55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2">
+        <v>2.7</v>
+      </c>
+      <c r="P2">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10002</v>
+      </c>
+      <c r="C3">
+        <v>2106</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-6</v>
+      </c>
+      <c r="K3">
+        <v>-3.5</v>
+      </c>
+      <c r="L3">
+        <v>6.35</v>
+      </c>
+      <c r="M3">
+        <v>3.5</v>
+      </c>
+      <c r="N3">
+        <v>-7.55</v>
+      </c>
+      <c r="O3">
+        <v>2.7</v>
+      </c>
+      <c r="P3">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20001</v>
+      </c>
+      <c r="C4">
         <v>2106</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>-6</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>-3.5</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>6.35</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>3.5</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>-7.55</v>
       </c>
-      <c r="N3" t="s">
-        <v>29</v>
+      <c r="O4">
+        <v>2.7</v>
+      </c>
+      <c r="P4">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20002</v>
+      </c>
+      <c r="C5">
+        <v>2106</v>
+      </c>
+      <c r="D5">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-6</v>
+      </c>
+      <c r="K5">
+        <v>-3.5</v>
+      </c>
+      <c r="L5">
+        <v>6.35</v>
+      </c>
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>-7.55</v>
+      </c>
+      <c r="O5">
+        <v>2.7</v>
+      </c>
+      <c r="P5">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -692,42 +837,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -753,7 +898,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -803,18 +948,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355538B-1E65-4385-B77F-D7A52D3369F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EC0F3-5505-4B39-995D-B06FD1C971BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>wall|String</t>
   </si>
   <si>
-    <t>Wall_0_Empty</t>
-  </si>
-  <si>
     <t>monsterId|String</t>
   </si>
   <si>
@@ -159,15 +156,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ground_12_40_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Env_DayLight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Plane_12_40_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground_Right_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_0_Zigzag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -578,31 +579,31 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -619,16 +620,16 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -643,19 +644,19 @@
         <v>6.35</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>-7.55</v>
+        <v>-11</v>
       </c>
       <c r="O2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P2">
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -672,16 +673,16 @@
         <v>121</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -696,19 +697,19 @@
         <v>6.35</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>-7.55</v>
+        <v>-11</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P3">
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -725,16 +726,16 @@
         <v>121</v>
       </c>
       <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -749,19 +750,19 @@
         <v>6.35</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>-7.55</v>
+        <v>-11</v>
       </c>
       <c r="O4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -778,16 +779,16 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -802,19 +803,19 @@
         <v>6.35</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>-7.55</v>
+        <v>-11</v>
       </c>
       <c r="O5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -837,42 +838,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -898,7 +899,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -948,18 +949,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EC0F3-5505-4B39-995D-B06FD1C971BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B04B8A-FC20-4656-A8DE-DD5355415FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
@@ -38,14 +38,6 @@
     <t>stage|Int</t>
   </si>
   <si>
-    <t>standardHp|Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>standardAtk|Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>environmentSetting|String!</t>
   </si>
   <si>
@@ -169,6 +161,14 @@
   </si>
   <si>
     <t>Wall_0_Zigzag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardHp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardAtk|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -555,55 +557,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -620,16 +622,16 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -656,7 +658,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -673,16 +675,16 @@
         <v>121</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -709,7 +711,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -726,16 +728,16 @@
         <v>121</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -762,7 +764,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -779,16 +781,16 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -815,7 +817,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -838,42 +840,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -899,7 +901,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -949,18 +951,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B04B8A-FC20-4656-A8DE-DD5355415FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B13D9-AD48-4596-95AE-9CB3284DB5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>stage|Int</t>
   </si>
@@ -170,6 +170,12 @@
   <si>
     <t>standardAtk|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madcap</t>
+  </si>
+  <si>
+    <t>Tonton_E</t>
   </si>
 </sst>
 </file>
@@ -541,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,9 +834,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -922,6 +930,58 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3.9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B13D9-AD48-4596-95AE-9CB3284DB5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B757CE9F-F9FC-42CC-8B4D-5C6AE882C167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>stage|Int</t>
   </si>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>Tonton_E</t>
+  </si>
+  <si>
+    <t>13,5,0.2,14,5,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g101,5,empty,5,12,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -547,9 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FFC637-7012-448B-B3CD-A955DBC75998}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -622,10 +628,10 @@
         <v>10001</v>
       </c>
       <c r="C2">
-        <v>2106</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -675,10 +681,10 @@
         <v>10002</v>
       </c>
       <c r="C3">
-        <v>2106</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -717,7 +723,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -728,10 +734,10 @@
         <v>20001</v>
       </c>
       <c r="C4">
-        <v>2106</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -781,10 +787,10 @@
         <v>20002</v>
       </c>
       <c r="C5">
-        <v>2106</v>
+        <v>300</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -836,9 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -915,16 +919,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -947,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1000,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80799EE6-D1F4-4D2D-A985-87CB39ECB69C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1022,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F02F80-18F7-4607-91FA-2564AD7DD35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D91FC6-FC90-45BD-9FCA-3307DE96D966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23460" yWindow="615" windowWidth="13515" windowHeight="14265" activeTab="2" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageIdTable" sheetId="5" r:id="rId1"/>
@@ -78149,7 +78149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5368D-8B07-41D3-8534-027B1DF92CF3}">
   <dimension ref="A1:H699"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -96337,9 +96337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -96422,7 +96420,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -96448,7 +96446,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -96474,7 +96472,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>

--- a/Excel/Stage.xlsx
+++ b/Excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D91FC6-FC90-45BD-9FCA-3307DE96D966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83107417-6CA3-476C-B5E5-EC833E94FC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27B884D9-C257-497B-937F-D0994886D51B}"/>
   </bookViews>
   <sheets>
     <sheet name="StageIdTable" sheetId="5" r:id="rId1"/>
@@ -78149,7 +78149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5368D-8B07-41D3-8534-027B1DF92CF3}">
   <dimension ref="A1:H699"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -78193,13 +78193,13 @@
         <v>80</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G2">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -78219,13 +78219,13 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>725</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -78245,13 +78245,13 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G4">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H4">
         <v>75</v>
@@ -78271,13 +78271,13 @@
         <v>110</v>
       </c>
       <c r="E5">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>775</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -78297,13 +78297,13 @@
         <v>120</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G6">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -78323,13 +78323,13 @@
         <v>130</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G7">
-        <v>400</v>
+        <v>825</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -78349,13 +78349,13 @@
         <v>140</v>
       </c>
       <c r="E8">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G8">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -78375,13 +78375,13 @@
         <v>150</v>
       </c>
       <c r="E9">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F9">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G9">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="H9">
         <v>150</v>
@@ -78401,13 +78401,13 @@
         <v>160</v>
       </c>
       <c r="E10">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G10">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="H10">
         <v>150</v>
@@ -78427,13 +78427,13 @@
         <v>170</v>
       </c>
       <c r="E11">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -78453,13 +78453,13 @@
         <v>180</v>
       </c>
       <c r="E12">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F12">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G12">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -78479,13 +78479,13 @@
         <v>190</v>
       </c>
       <c r="E13">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F13">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G13">
-        <v>650</v>
+        <v>925</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -78505,13 +78505,13 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G14">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -78531,13 +78531,13 @@
         <v>210</v>
       </c>
       <c r="E15">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="F15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G15">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -78557,13 +78557,13 @@
         <v>220</v>
       </c>
       <c r="E16">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="F16">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G16">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -78583,13 +78583,13 @@
         <v>230</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F17">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G17">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -78609,13 +78609,13 @@
         <v>240</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F18">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G18">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -78638,10 +78638,10 @@
         <v>1050</v>
       </c>
       <c r="F19">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G19">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -78664,10 +78664,10 @@
         <v>1050</v>
       </c>
       <c r="F20">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G20">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="H20">
         <v>225</v>
@@ -78690,10 +78690,10 @@
         <v>1100</v>
       </c>
       <c r="F21">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G21">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="H21">
         <v>225</v>
@@ -78716,10 +78716,10 @@
         <v>1100</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G22">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="H22">
         <v>250</v>
@@ -78742,10 +78742,10 @@
         <v>1150</v>
       </c>
       <c r="F23">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G23">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="H23">
         <v>250</v>
@@ -78768,10 +78768,10 @@
         <v>1150</v>
       </c>
       <c r="F24">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G24">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="H24">
         <v>250</v>
@@ -78794,10 +78794,10 @@
         <v>1200</v>
       </c>
       <c r="F25">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G25">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="H25">
         <v>250</v>
@@ -78820,10 +78820,10 @@
         <v>1200</v>
       </c>
       <c r="F26">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G26">
-        <v>900</v>
+        <v>1025</v>
       </c>
       <c r="H26">
         <v>250</v>
@@ -78846,10 +78846,10 @@
         <v>1250</v>
       </c>
       <c r="F27">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G27">
-        <v>900</v>
+        <v>1025</v>
       </c>
       <c r="H27">
         <v>250</v>
@@ -78872,10 +78872,10 @@
         <v>1250</v>
       </c>
       <c r="F28">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G28">
-        <v>925</v>
+        <v>1025</v>
       </c>
       <c r="H28">
         <v>250</v>
@@ -78898,10 +78898,10 @@
         <v>1250</v>
       </c>
       <c r="F29">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G29">
-        <v>925</v>
+        <v>1025</v>
       </c>
       <c r="H29">
         <v>250</v>
@@ -78924,10 +78924,10 @@
         <v>1300</v>
       </c>
       <c r="F30">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G30">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="H30">
         <v>250</v>
@@ -78950,10 +78950,10 @@
         <v>1300</v>
       </c>
       <c r="F31">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G31">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="H31">
         <v>250</v>
@@ -78976,10 +78976,10 @@
         <v>1350</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G32">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="H32">
         <v>250</v>
@@ -79002,10 +79002,10 @@
         <v>1350</v>
       </c>
       <c r="F33">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G33">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="H33">
         <v>250</v>
@@ -79028,10 +79028,10 @@
         <v>1400</v>
       </c>
       <c r="F34">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G34">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="H34">
         <v>250</v>
@@ -79054,10 +79054,10 @@
         <v>1400</v>
       </c>
       <c r="F35">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="G35">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="H35">
         <v>250</v>
@@ -79080,10 +79080,10 @@
         <v>1400</v>
       </c>
       <c r="F36">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="G36">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="H36">
         <v>275</v>
@@ -79106,10 +79106,10 @@
         <v>1400</v>
       </c>
       <c r="F37">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="G37">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="H37">
         <v>275</v>
@@ -79132,10 +79132,10 @@
         <v>1450</v>
       </c>
       <c r="F38">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="H38">
         <v>300</v>
@@ -79161,7 +79161,7 @@
         <v>7000</v>
       </c>
       <c r="G39">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="H39">
         <v>300</v>
@@ -79187,7 +79187,7 @@
         <v>7000</v>
       </c>
       <c r="G40">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="H40">
         <v>300</v>
@@ -79213,7 +79213,7 @@
         <v>7000</v>
       </c>
       <c r="G41">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="H41">
         <v>300</v>
@@ -96337,7 +96337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AEEA2E-31D6-4A2D-AF91-74499126C24C}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
